--- a/01. Preprocessing data/Луч Глава 5.xlsx
+++ b/01. Preprocessing data/Луч Глава 5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portu\Documents\3dPlaning_RadiusOsteotomy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portu\Documents\3dPlaning_RadiusOsteotomy\01. Preprocessing data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3'!$A$1:$M$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4'!$A$1:$N$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4'!$A$1:$O$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5'!$A$1:$AQ$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
   <si>
     <t>Group</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>Rh_MesD12</t>
-  </si>
-  <si>
-    <t>женский</t>
-  </si>
-  <si>
-    <t>мужской</t>
   </si>
   <si>
     <t>SF_16_РН0</t>
@@ -425,6 +419,9 @@
   </si>
   <si>
     <t>SF_16_MН_6</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1159,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1171,39 +1168,39 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12">
         <v>33</v>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="12">
         <v>59</v>
@@ -1287,7 +1284,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="12">
         <v>41</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="12">
         <v>48</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="12">
         <v>58</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12">
         <v>65</v>
@@ -1455,7 +1452,7 @@
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12">
         <v>30</v>
@@ -1497,7 +1494,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="12">
         <v>50</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12">
         <v>48</v>
@@ -1581,7 +1578,7 @@
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="12">
         <v>42</v>
@@ -1623,7 +1620,7 @@
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="12">
         <v>36</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="12">
         <v>31</v>
@@ -1707,7 +1704,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="12">
         <v>40</v>
@@ -1749,7 +1746,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="12">
         <v>36</v>
@@ -1791,7 +1788,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="12">
         <v>46</v>
@@ -1833,7 +1830,7 @@
     </row>
     <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="12">
         <v>52</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="12">
         <v>42</v>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="12">
         <v>61</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="12">
         <v>61</v>
@@ -2001,7 +1998,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="12">
         <v>44</v>
@@ -2043,7 +2040,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="12">
         <v>64</v>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="12">
         <v>34</v>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="12">
         <v>52</v>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="12">
         <v>31</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="12">
         <v>58</v>
@@ -2253,7 +2250,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="12">
         <v>43</v>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="12">
         <v>51</v>
@@ -2337,7 +2334,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12">
         <v>37</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="12">
         <v>50</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="12">
         <v>32</v>
@@ -2463,7 +2460,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="12">
         <v>41</v>
@@ -2505,7 +2502,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2547,7 +2544,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="12">
         <v>55</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="12">
         <v>47</v>
@@ -2631,7 +2628,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="12">
         <v>59</v>
@@ -2715,7 +2712,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="12">
         <v>41</v>
@@ -2757,7 +2754,7 @@
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="12">
         <v>48</v>
@@ -2799,7 +2796,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="12">
         <v>58</v>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="12">
         <v>65</v>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="12">
         <v>30</v>
@@ -2925,7 +2922,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="12">
         <v>50</v>
@@ -2967,7 +2964,7 @@
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="12">
         <v>48</v>
@@ -3009,7 +3006,7 @@
     </row>
     <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -3051,7 +3048,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="12">
         <v>36</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="12">
         <v>31</v>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="12">
         <v>40</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="12">
         <v>36</v>
@@ -3219,7 +3216,7 @@
     </row>
     <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="12">
         <v>46</v>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="12">
         <v>52</v>
@@ -3303,7 +3300,7 @@
     </row>
     <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="12">
         <v>42</v>
@@ -3345,7 +3342,7 @@
     </row>
     <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="12">
         <v>61</v>
@@ -3387,7 +3384,7 @@
     </row>
     <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" s="12">
         <v>61</v>
@@ -3429,7 +3426,7 @@
     </row>
     <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="12">
         <v>44</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56" s="12">
         <v>64</v>
@@ -3513,7 +3510,7 @@
     </row>
     <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="12">
         <v>34</v>
@@ -3555,7 +3552,7 @@
     </row>
     <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="12">
         <v>52</v>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="12">
         <v>31</v>
@@ -3639,7 +3636,7 @@
     </row>
     <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="12">
         <v>58</v>
@@ -3681,7 +3678,7 @@
     </row>
     <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" s="12">
         <v>43</v>
@@ -3723,7 +3720,7 @@
     </row>
     <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" s="12">
         <v>51</v>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B63" s="12">
         <v>37</v>
@@ -3807,7 +3804,7 @@
     </row>
     <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B64" s="12">
         <v>50</v>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65" s="12">
         <v>32</v>
@@ -3891,7 +3888,7 @@
     </row>
     <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="12">
         <v>41</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="12">
         <v>30</v>
@@ -3975,7 +3972,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" s="12">
         <v>55</v>
@@ -4017,7 +4014,7 @@
     </row>
     <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" s="12">
         <v>47</v>
@@ -4073,212 +4070,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="L1" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="N1" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="71">
+        <v>1</v>
+      </c>
+      <c r="D2" s="72">
+        <v>63</v>
+      </c>
+      <c r="E2" s="71">
+        <v>2</v>
+      </c>
+      <c r="F2" s="71">
+        <v>2</v>
+      </c>
+      <c r="G2" s="71">
+        <v>2</v>
+      </c>
+      <c r="H2" s="71">
+        <v>1</v>
+      </c>
+      <c r="I2" s="71">
+        <v>1</v>
+      </c>
+      <c r="J2" s="71">
+        <v>22</v>
+      </c>
+      <c r="K2" s="71" t="str">
+        <f>IF(J2&lt;15,"1",IF(J2&gt;25,"3","2"))</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="71">
+        <v>18</v>
+      </c>
+      <c r="M2" s="71" t="str">
+        <f>IF(L2&lt;10,"1",IF(L2&gt;25,"3","2"))</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="71">
+        <v>13</v>
+      </c>
+      <c r="O2" s="71" t="str">
+        <f>IF(N2&lt;8,"1",IF(N2&gt;14,"3","2"))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" s="71">
+        <v>2</v>
+      </c>
+      <c r="D3" s="72">
+        <v>20</v>
+      </c>
+      <c r="E3" s="71">
+        <v>2</v>
+      </c>
+      <c r="F3" s="71">
+        <v>2</v>
+      </c>
+      <c r="G3" s="71">
+        <v>2</v>
+      </c>
+      <c r="H3" s="71">
+        <v>1</v>
+      </c>
+      <c r="I3" s="71">
+        <v>2</v>
+      </c>
+      <c r="J3" s="71">
+        <v>26</v>
+      </c>
+      <c r="K3" s="71" t="str">
+        <f t="shared" ref="K3:K45" si="0">IF(J3&lt;15,"1",IF(J3&gt;25,"3","2"))</f>
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="L3" s="71">
+        <v>15</v>
+      </c>
+      <c r="M3" s="71" t="str">
+        <f t="shared" ref="M3:M45" si="1">IF(L3&lt;10,"1",IF(L3&gt;25,"3","2"))</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="71">
+        <v>8</v>
+      </c>
+      <c r="O3" s="71" t="str">
+        <f t="shared" ref="O3:O45" si="2">IF(N3&lt;8,"1",IF(N3&gt;14,"3","2"))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="72">
-        <v>63</v>
-      </c>
-      <c r="D2" s="71">
-        <v>2</v>
-      </c>
-      <c r="E2" s="71">
-        <v>2</v>
-      </c>
-      <c r="F2" s="71">
-        <v>2</v>
-      </c>
-      <c r="G2" s="71">
-        <v>1</v>
-      </c>
-      <c r="H2" s="71">
-        <v>1</v>
-      </c>
-      <c r="I2" s="71">
-        <v>22</v>
-      </c>
-      <c r="J2" s="71" t="str">
-        <f>IF(I2&lt;15,"1",IF(I2&gt;25,"3","2"))</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="71">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="71">
+        <v>1</v>
+      </c>
+      <c r="D4" s="72">
+        <v>78</v>
+      </c>
+      <c r="E4" s="71">
+        <v>2</v>
+      </c>
+      <c r="F4" s="71">
+        <v>2</v>
+      </c>
+      <c r="G4" s="71">
+        <v>2</v>
+      </c>
+      <c r="H4" s="71">
+        <v>1</v>
+      </c>
+      <c r="I4" s="71">
+        <v>2</v>
+      </c>
+      <c r="J4" s="71">
+        <v>24</v>
+      </c>
+      <c r="K4" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L4" s="71">
+        <v>13</v>
+      </c>
+      <c r="M4" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="71">
         <v>18</v>
       </c>
-      <c r="L2" s="71" t="str">
-        <f>IF(K2&lt;10,"1",IF(K2&gt;25,"3","2"))</f>
-        <v>2</v>
-      </c>
-      <c r="M2" s="71">
-        <v>13</v>
-      </c>
-      <c r="N2" s="71" t="str">
-        <f>IF(M2&lt;8,"1",IF(M2&gt;14,"3","2"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="72">
-        <v>20</v>
-      </c>
-      <c r="D3" s="71">
-        <v>2</v>
-      </c>
-      <c r="E3" s="71">
-        <v>2</v>
-      </c>
-      <c r="F3" s="71">
-        <v>2</v>
-      </c>
-      <c r="G3" s="71">
-        <v>1</v>
-      </c>
-      <c r="H3" s="71">
-        <v>2</v>
-      </c>
-      <c r="I3" s="71">
-        <v>26</v>
-      </c>
-      <c r="J3" s="71" t="str">
-        <f t="shared" ref="J3:J45" si="0">IF(I3&lt;15,"1",IF(I3&gt;25,"3","2"))</f>
-        <v>3</v>
-      </c>
-      <c r="K3" s="71">
-        <v>15</v>
-      </c>
-      <c r="L3" s="71" t="str">
-        <f t="shared" ref="L3:L45" si="1">IF(K3&lt;10,"1",IF(K3&gt;25,"3","2"))</f>
-        <v>2</v>
-      </c>
-      <c r="M3" s="71">
-        <v>8</v>
-      </c>
-      <c r="N3" s="71" t="str">
-        <f t="shared" ref="N3:N45" si="2">IF(M3&lt;8,"1",IF(M3&gt;14,"3","2"))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="72">
-        <v>78</v>
-      </c>
-      <c r="D4" s="71">
-        <v>2</v>
-      </c>
-      <c r="E4" s="71">
-        <v>2</v>
-      </c>
-      <c r="F4" s="71">
-        <v>2</v>
-      </c>
-      <c r="G4" s="71">
-        <v>1</v>
-      </c>
-      <c r="H4" s="71">
-        <v>2</v>
-      </c>
-      <c r="I4" s="71">
-        <v>24</v>
-      </c>
-      <c r="J4" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K4" s="71">
-        <v>13</v>
-      </c>
-      <c r="L4" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M4" s="71">
-        <v>18</v>
-      </c>
-      <c r="N4" s="71" t="str">
+      <c r="O4" s="71" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="72">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="71">
+        <v>1</v>
+      </c>
+      <c r="D5" s="72">
         <v>73</v>
       </c>
-      <c r="D5" s="71">
-        <v>2</v>
-      </c>
       <c r="E5" s="71">
         <v>2</v>
       </c>
@@ -4286,142 +4295,151 @@
         <v>2</v>
       </c>
       <c r="G5" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="71">
+        <v>2</v>
+      </c>
+      <c r="J5" s="71">
         <v>28</v>
       </c>
-      <c r="J5" s="71" t="str">
+      <c r="K5" s="71" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K5" s="71">
+      <c r="L5" s="71">
         <v>13</v>
       </c>
-      <c r="L5" s="71" t="str">
+      <c r="M5" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M5" s="71">
+      <c r="N5" s="71">
         <v>12</v>
       </c>
-      <c r="N5" s="71" t="str">
+      <c r="O5" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="72">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" s="71">
+        <v>1</v>
+      </c>
+      <c r="D6" s="72">
         <v>68</v>
       </c>
-      <c r="D6" s="71">
-        <v>2</v>
-      </c>
       <c r="E6" s="71">
         <v>2</v>
       </c>
       <c r="F6" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="71">
+        <v>1</v>
+      </c>
+      <c r="J6" s="71">
         <v>16</v>
       </c>
-      <c r="J6" s="71" t="str">
+      <c r="K6" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K6" s="71">
+      <c r="L6" s="71">
         <v>16</v>
       </c>
-      <c r="L6" s="71" t="str">
+      <c r="M6" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M6" s="71">
+      <c r="N6" s="71">
         <v>18</v>
       </c>
-      <c r="N6" s="71" t="str">
+      <c r="O6" s="71" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="72">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" s="71">
+        <v>1</v>
+      </c>
+      <c r="D7" s="72">
         <v>60</v>
       </c>
-      <c r="D7" s="71">
-        <v>2</v>
-      </c>
       <c r="E7" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="71">
         <v>2</v>
       </c>
       <c r="H7" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="71">
+        <v>1</v>
+      </c>
+      <c r="J7" s="71">
         <v>24</v>
       </c>
-      <c r="J7" s="71" t="str">
+      <c r="K7" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K7" s="71">
+      <c r="L7" s="71">
         <v>15</v>
       </c>
-      <c r="L7" s="71" t="str">
+      <c r="M7" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M7" s="71">
+      <c r="N7" s="71">
         <v>13</v>
       </c>
-      <c r="N7" s="71" t="str">
+      <c r="O7" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="72">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="71">
+        <v>1</v>
+      </c>
+      <c r="D8" s="72">
         <v>57</v>
       </c>
-      <c r="D8" s="71">
-        <v>2</v>
-      </c>
       <c r="E8" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="71">
         <v>1</v>
@@ -4433,42 +4451,45 @@
         <v>1</v>
       </c>
       <c r="I8" s="71">
+        <v>1</v>
+      </c>
+      <c r="J8" s="71">
         <v>30</v>
       </c>
-      <c r="J8" s="71" t="str">
+      <c r="K8" s="71" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K8" s="71">
+      <c r="L8" s="71">
         <v>10</v>
       </c>
-      <c r="L8" s="71" t="str">
+      <c r="M8" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M8" s="71">
+      <c r="N8" s="71">
         <v>12</v>
       </c>
-      <c r="N8" s="71" t="str">
+      <c r="O8" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="72">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9" s="71">
+        <v>1</v>
+      </c>
+      <c r="D9" s="72">
         <v>65</v>
       </c>
-      <c r="D9" s="71">
-        <v>2</v>
-      </c>
       <c r="E9" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="71">
         <v>1</v>
@@ -4477,43 +4498,46 @@
         <v>1</v>
       </c>
       <c r="H9" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="71">
+        <v>2</v>
+      </c>
+      <c r="J9" s="71">
         <v>17</v>
       </c>
-      <c r="J9" s="71" t="str">
+      <c r="K9" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K9" s="71">
+      <c r="L9" s="71">
         <v>18</v>
       </c>
-      <c r="L9" s="71" t="str">
+      <c r="M9" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M9" s="71">
+      <c r="N9" s="71">
         <v>18</v>
       </c>
-      <c r="N9" s="71" t="str">
+      <c r="O9" s="71" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="72">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="71">
+        <v>1</v>
+      </c>
+      <c r="D10" s="72">
         <v>57</v>
       </c>
-      <c r="D10" s="71">
-        <v>2</v>
-      </c>
       <c r="E10" s="71">
         <v>2</v>
       </c>
@@ -4521,46 +4545,49 @@
         <v>2</v>
       </c>
       <c r="G10" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="71">
+        <v>2</v>
+      </c>
+      <c r="J10" s="71">
         <v>24</v>
       </c>
-      <c r="J10" s="71" t="str">
+      <c r="K10" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K10" s="71">
+      <c r="L10" s="71">
         <v>14</v>
       </c>
-      <c r="L10" s="71" t="str">
+      <c r="M10" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M10" s="71">
+      <c r="N10" s="71">
         <v>13</v>
       </c>
-      <c r="N10" s="71" t="str">
+      <c r="O10" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="72">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11" s="71">
+        <v>1</v>
+      </c>
+      <c r="D11" s="72">
         <v>63</v>
       </c>
-      <c r="D11" s="71">
-        <v>2</v>
-      </c>
       <c r="E11" s="71">
         <v>2</v>
       </c>
@@ -4568,140 +4595,149 @@
         <v>2</v>
       </c>
       <c r="G11" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="71">
         <v>1</v>
       </c>
       <c r="I11" s="71">
+        <v>1</v>
+      </c>
+      <c r="J11" s="71">
         <v>23</v>
       </c>
-      <c r="J11" s="71" t="str">
+      <c r="K11" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="71">
+      <c r="L11" s="71">
         <v>15</v>
       </c>
-      <c r="L11" s="71" t="str">
+      <c r="M11" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M11" s="71">
+      <c r="N11" s="71">
         <v>17</v>
       </c>
-      <c r="N11" s="71" t="str">
+      <c r="O11" s="71" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" s="71">
+        <v>2</v>
+      </c>
+      <c r="D12" s="72">
+        <v>39</v>
+      </c>
+      <c r="E12" s="71">
+        <v>2</v>
+      </c>
+      <c r="F12" s="71">
+        <v>1</v>
+      </c>
+      <c r="G12" s="71">
+        <v>1</v>
+      </c>
+      <c r="H12" s="71">
+        <v>1</v>
+      </c>
+      <c r="I12" s="71">
+        <v>1</v>
+      </c>
+      <c r="J12" s="71">
+        <v>13</v>
+      </c>
+      <c r="K12" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="71">
+        <v>13</v>
+      </c>
+      <c r="M12" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N12" s="71">
+        <v>10</v>
+      </c>
+      <c r="O12" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" s="71">
+        <v>1</v>
+      </c>
+      <c r="D13" s="72">
+        <v>71</v>
+      </c>
+      <c r="E13" s="71">
+        <v>2</v>
+      </c>
+      <c r="F13" s="71">
+        <v>1</v>
+      </c>
+      <c r="G13" s="71">
+        <v>1</v>
+      </c>
+      <c r="H13" s="71">
+        <v>1</v>
+      </c>
+      <c r="I13" s="71">
+        <v>2</v>
+      </c>
+      <c r="J13" s="71">
+        <v>21</v>
+      </c>
+      <c r="K13" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="71">
+        <v>17</v>
+      </c>
+      <c r="M13" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="71">
+        <v>11</v>
+      </c>
+      <c r="O13" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="72">
-        <v>39</v>
-      </c>
-      <c r="D12" s="71">
-        <v>2</v>
-      </c>
-      <c r="E12" s="71">
-        <v>1</v>
-      </c>
-      <c r="F12" s="71">
-        <v>1</v>
-      </c>
-      <c r="G12" s="71">
-        <v>1</v>
-      </c>
-      <c r="H12" s="71">
-        <v>1</v>
-      </c>
-      <c r="I12" s="71">
-        <v>13</v>
-      </c>
-      <c r="J12" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="71">
-        <v>13</v>
-      </c>
-      <c r="L12" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M12" s="71">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="N12" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="72">
-        <v>71</v>
-      </c>
-      <c r="D13" s="71">
-        <v>2</v>
-      </c>
-      <c r="E13" s="71">
-        <v>1</v>
-      </c>
-      <c r="F13" s="71">
-        <v>1</v>
-      </c>
-      <c r="G13" s="71">
-        <v>1</v>
-      </c>
-      <c r="H13" s="71">
-        <v>2</v>
-      </c>
-      <c r="I13" s="71">
-        <v>21</v>
-      </c>
-      <c r="J13" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="71">
-        <v>17</v>
-      </c>
-      <c r="L13" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="71">
-        <v>11</v>
-      </c>
-      <c r="N13" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
+        <v>1</v>
+      </c>
+      <c r="D14" s="72">
         <v>64</v>
       </c>
-      <c r="D14" s="71">
-        <v>2</v>
-      </c>
       <c r="E14" s="71">
         <v>2</v>
       </c>
@@ -4709,46 +4745,49 @@
         <v>2</v>
       </c>
       <c r="G14" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="71">
+        <v>2</v>
+      </c>
+      <c r="J14" s="71">
         <v>27</v>
       </c>
-      <c r="J14" s="71" t="str">
+      <c r="K14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K14" s="71">
+      <c r="L14" s="71">
         <v>11</v>
       </c>
-      <c r="L14" s="71" t="str">
+      <c r="M14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M14" s="71">
+      <c r="N14" s="71">
         <v>8</v>
       </c>
-      <c r="N14" s="71" t="str">
+      <c r="O14" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="72">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="71">
+        <v>1</v>
+      </c>
+      <c r="D15" s="72">
         <v>60</v>
       </c>
-      <c r="D15" s="71">
-        <v>2</v>
-      </c>
       <c r="E15" s="71">
         <v>2</v>
       </c>
@@ -4756,48 +4795,51 @@
         <v>2</v>
       </c>
       <c r="G15" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="71">
         <v>1</v>
       </c>
       <c r="I15" s="71">
+        <v>1</v>
+      </c>
+      <c r="J15" s="71">
         <v>29</v>
       </c>
-      <c r="J15" s="71" t="str">
+      <c r="K15" s="71" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K15" s="71">
+      <c r="L15" s="71">
         <v>16</v>
       </c>
-      <c r="L15" s="71" t="str">
+      <c r="M15" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M15" s="71">
+      <c r="N15" s="71">
         <v>10</v>
       </c>
-      <c r="N15" s="71" t="str">
+      <c r="O15" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="72">
+        <v>94</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="71">
+        <v>1</v>
+      </c>
+      <c r="D16" s="72">
         <v>57</v>
       </c>
-      <c r="D16" s="71">
-        <v>2</v>
-      </c>
       <c r="E16" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="71">
         <v>1</v>
@@ -4809,42 +4851,45 @@
         <v>1</v>
       </c>
       <c r="I16" s="71">
+        <v>1</v>
+      </c>
+      <c r="J16" s="71">
         <v>30</v>
       </c>
-      <c r="J16" s="71" t="str">
+      <c r="K16" s="71" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K16" s="71">
+      <c r="L16" s="71">
         <v>10</v>
       </c>
-      <c r="L16" s="71" t="str">
+      <c r="M16" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M16" s="71">
+      <c r="N16" s="71">
         <v>12</v>
       </c>
-      <c r="N16" s="71" t="str">
+      <c r="O16" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="72">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" s="71">
+        <v>1</v>
+      </c>
+      <c r="D17" s="72">
         <v>65</v>
       </c>
-      <c r="D17" s="71">
-        <v>2</v>
-      </c>
       <c r="E17" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="71">
         <v>1</v>
@@ -4853,43 +4898,46 @@
         <v>1</v>
       </c>
       <c r="H17" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="71">
+        <v>2</v>
+      </c>
+      <c r="J17" s="71">
         <v>17</v>
       </c>
-      <c r="J17" s="71" t="str">
+      <c r="K17" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K17" s="71">
+      <c r="L17" s="71">
         <v>18</v>
       </c>
-      <c r="L17" s="71" t="str">
+      <c r="M17" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M17" s="71">
+      <c r="N17" s="71">
         <v>18</v>
       </c>
-      <c r="N17" s="71" t="str">
+      <c r="O17" s="71" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="72">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="71">
+        <v>1</v>
+      </c>
+      <c r="D18" s="72">
         <v>57</v>
       </c>
-      <c r="D18" s="71">
-        <v>2</v>
-      </c>
       <c r="E18" s="71">
         <v>2</v>
       </c>
@@ -4897,46 +4945,49 @@
         <v>2</v>
       </c>
       <c r="G18" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="71">
+        <v>2</v>
+      </c>
+      <c r="J18" s="71">
         <v>24</v>
       </c>
-      <c r="J18" s="71" t="str">
+      <c r="K18" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K18" s="71">
+      <c r="L18" s="71">
         <v>14</v>
       </c>
-      <c r="L18" s="71" t="str">
+      <c r="M18" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M18" s="71">
+      <c r="N18" s="71">
         <v>13</v>
       </c>
-      <c r="N18" s="71" t="str">
+      <c r="O18" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="72">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" s="71">
+        <v>1</v>
+      </c>
+      <c r="D19" s="72">
         <v>63</v>
       </c>
-      <c r="D19" s="71">
-        <v>2</v>
-      </c>
       <c r="E19" s="71">
         <v>2</v>
       </c>
@@ -4944,140 +4995,149 @@
         <v>2</v>
       </c>
       <c r="G19" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="71">
         <v>1</v>
       </c>
       <c r="I19" s="71">
+        <v>1</v>
+      </c>
+      <c r="J19" s="71">
         <v>23</v>
       </c>
-      <c r="J19" s="71" t="str">
+      <c r="K19" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K19" s="71">
+      <c r="L19" s="71">
         <v>15</v>
       </c>
-      <c r="L19" s="71" t="str">
+      <c r="M19" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M19" s="71">
+      <c r="N19" s="71">
         <v>17</v>
       </c>
-      <c r="N19" s="71" t="str">
+      <c r="O19" s="71" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="71">
+        <v>2</v>
+      </c>
+      <c r="D20" s="72">
+        <v>39</v>
+      </c>
+      <c r="E20" s="71">
+        <v>2</v>
+      </c>
+      <c r="F20" s="71">
+        <v>1</v>
+      </c>
+      <c r="G20" s="71">
+        <v>1</v>
+      </c>
+      <c r="H20" s="71">
+        <v>1</v>
+      </c>
+      <c r="I20" s="71">
+        <v>1</v>
+      </c>
+      <c r="J20" s="71">
+        <v>13</v>
+      </c>
+      <c r="K20" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="71">
+        <v>13</v>
+      </c>
+      <c r="M20" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N20" s="71">
+        <v>10</v>
+      </c>
+      <c r="O20" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="71">
+        <v>1</v>
+      </c>
+      <c r="D21" s="72">
+        <v>71</v>
+      </c>
+      <c r="E21" s="71">
+        <v>2</v>
+      </c>
+      <c r="F21" s="71">
+        <v>1</v>
+      </c>
+      <c r="G21" s="71">
+        <v>1</v>
+      </c>
+      <c r="H21" s="71">
+        <v>1</v>
+      </c>
+      <c r="I21" s="71">
+        <v>2</v>
+      </c>
+      <c r="J21" s="71">
+        <v>21</v>
+      </c>
+      <c r="K21" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="71">
+        <v>17</v>
+      </c>
+      <c r="M21" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N21" s="71">
+        <v>11</v>
+      </c>
+      <c r="O21" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="72">
-        <v>39</v>
-      </c>
-      <c r="D20" s="71">
-        <v>2</v>
-      </c>
-      <c r="E20" s="71">
-        <v>1</v>
-      </c>
-      <c r="F20" s="71">
-        <v>1</v>
-      </c>
-      <c r="G20" s="71">
-        <v>1</v>
-      </c>
-      <c r="H20" s="71">
-        <v>1</v>
-      </c>
-      <c r="I20" s="71">
-        <v>13</v>
-      </c>
-      <c r="J20" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="71">
-        <v>13</v>
-      </c>
-      <c r="L20" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M20" s="71">
-        <v>10</v>
-      </c>
-      <c r="N20" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="72">
-        <v>71</v>
-      </c>
-      <c r="D21" s="71">
-        <v>2</v>
-      </c>
-      <c r="E21" s="71">
-        <v>1</v>
-      </c>
-      <c r="F21" s="71">
-        <v>1</v>
-      </c>
-      <c r="G21" s="71">
-        <v>1</v>
-      </c>
-      <c r="H21" s="71">
-        <v>2</v>
-      </c>
-      <c r="I21" s="71">
-        <v>21</v>
-      </c>
-      <c r="J21" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K21" s="71">
-        <v>17</v>
-      </c>
-      <c r="L21" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M21" s="71">
-        <v>11</v>
-      </c>
-      <c r="N21" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="72">
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" s="71">
+        <v>1</v>
+      </c>
+      <c r="D22" s="72">
         <v>64</v>
       </c>
-      <c r="D22" s="71">
-        <v>2</v>
-      </c>
       <c r="E22" s="71">
         <v>2</v>
       </c>
@@ -5085,46 +5145,49 @@
         <v>2</v>
       </c>
       <c r="G22" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="71">
+        <v>2</v>
+      </c>
+      <c r="J22" s="71">
         <v>27</v>
       </c>
-      <c r="J22" s="71" t="str">
+      <c r="K22" s="71" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K22" s="71">
+      <c r="L22" s="71">
         <v>11</v>
       </c>
-      <c r="L22" s="71" t="str">
+      <c r="M22" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M22" s="71">
+      <c r="N22" s="71">
         <v>8</v>
       </c>
-      <c r="N22" s="71" t="str">
+      <c r="O22" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="72">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" s="71">
+        <v>1</v>
+      </c>
+      <c r="D23" s="72">
         <v>60</v>
       </c>
-      <c r="D23" s="71">
-        <v>2</v>
-      </c>
       <c r="E23" s="71">
         <v>2</v>
       </c>
@@ -5132,1069 +5195,1138 @@
         <v>2</v>
       </c>
       <c r="G23" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="71">
         <v>1</v>
       </c>
       <c r="I23" s="71">
+        <v>1</v>
+      </c>
+      <c r="J23" s="71">
         <v>29</v>
       </c>
-      <c r="J23" s="71" t="str">
+      <c r="K23" s="71" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K23" s="71">
+      <c r="L23" s="71">
         <v>16</v>
       </c>
-      <c r="L23" s="71" t="str">
+      <c r="M23" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M23" s="71">
+      <c r="N23" s="71">
         <v>10</v>
       </c>
-      <c r="N23" s="71" t="str">
+      <c r="O23" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="71">
+        <v>1</v>
+      </c>
+      <c r="D24" s="72">
+        <v>63</v>
+      </c>
+      <c r="E24" s="71">
+        <v>1</v>
+      </c>
+      <c r="F24" s="71">
+        <v>2</v>
+      </c>
+      <c r="G24" s="71">
+        <v>2</v>
+      </c>
+      <c r="H24" s="71">
+        <v>1</v>
+      </c>
+      <c r="I24" s="71">
+        <v>1</v>
+      </c>
+      <c r="J24" s="77">
+        <v>22</v>
+      </c>
+      <c r="K24" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="77">
+        <v>17</v>
+      </c>
+      <c r="M24" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N24" s="77">
+        <v>13</v>
+      </c>
+      <c r="O24" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25" s="71">
+        <v>2</v>
+      </c>
+      <c r="D25" s="72">
+        <v>20</v>
+      </c>
+      <c r="E25" s="71">
+        <v>1</v>
+      </c>
+      <c r="F25" s="71">
+        <v>2</v>
+      </c>
+      <c r="G25" s="71">
+        <v>2</v>
+      </c>
+      <c r="H25" s="71">
+        <v>1</v>
+      </c>
+      <c r="I25" s="71">
+        <v>2</v>
+      </c>
+      <c r="J25" s="77">
+        <v>23</v>
+      </c>
+      <c r="K25" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="77">
+        <v>15</v>
+      </c>
+      <c r="M25" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N25" s="77">
+        <v>8</v>
+      </c>
+      <c r="O25" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="72">
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" s="71">
+        <v>1</v>
+      </c>
+      <c r="D26" s="72">
+        <v>78</v>
+      </c>
+      <c r="E26" s="71">
+        <v>1</v>
+      </c>
+      <c r="F26" s="71">
+        <v>2</v>
+      </c>
+      <c r="G26" s="71">
+        <v>2</v>
+      </c>
+      <c r="H26" s="71">
+        <v>1</v>
+      </c>
+      <c r="I26" s="71">
+        <v>2</v>
+      </c>
+      <c r="J26" s="77">
+        <v>24</v>
+      </c>
+      <c r="K26" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="77">
+        <v>11</v>
+      </c>
+      <c r="M26" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N26" s="77">
+        <v>12</v>
+      </c>
+      <c r="O26" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" s="71">
+        <v>1</v>
+      </c>
+      <c r="D27" s="72">
+        <v>73</v>
+      </c>
+      <c r="E27" s="71">
+        <v>1</v>
+      </c>
+      <c r="F27" s="71">
+        <v>2</v>
+      </c>
+      <c r="G27" s="71">
+        <v>2</v>
+      </c>
+      <c r="H27" s="71">
+        <v>1</v>
+      </c>
+      <c r="I27" s="71">
+        <v>2</v>
+      </c>
+      <c r="J27" s="77">
+        <v>24</v>
+      </c>
+      <c r="K27" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="77">
+        <v>13</v>
+      </c>
+      <c r="M27" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N27" s="77">
+        <v>12</v>
+      </c>
+      <c r="O27" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28" s="71">
+        <v>1</v>
+      </c>
+      <c r="D28" s="72">
+        <v>68</v>
+      </c>
+      <c r="E28" s="71">
+        <v>1</v>
+      </c>
+      <c r="F28" s="71">
+        <v>2</v>
+      </c>
+      <c r="G28" s="71">
+        <v>1</v>
+      </c>
+      <c r="H28" s="71">
+        <v>2</v>
+      </c>
+      <c r="I28" s="71">
+        <v>1</v>
+      </c>
+      <c r="J28" s="77">
+        <v>21</v>
+      </c>
+      <c r="K28" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="77">
+        <v>16</v>
+      </c>
+      <c r="M28" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N28" s="77">
+        <v>13</v>
+      </c>
+      <c r="O28" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" s="71">
+        <v>1</v>
+      </c>
+      <c r="D29" s="72">
+        <v>60</v>
+      </c>
+      <c r="E29" s="71">
+        <v>1</v>
+      </c>
+      <c r="F29" s="71">
+        <v>1</v>
+      </c>
+      <c r="G29" s="71">
+        <v>2</v>
+      </c>
+      <c r="H29" s="71">
+        <v>2</v>
+      </c>
+      <c r="I29" s="71">
+        <v>1</v>
+      </c>
+      <c r="J29" s="77">
+        <v>24</v>
+      </c>
+      <c r="K29" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="77">
+        <v>12</v>
+      </c>
+      <c r="M29" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N29" s="77">
+        <v>13</v>
+      </c>
+      <c r="O29" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="71">
+        <v>1</v>
+      </c>
+      <c r="D30" s="72">
+        <v>57</v>
+      </c>
+      <c r="E30" s="71">
+        <v>1</v>
+      </c>
+      <c r="F30" s="71">
+        <v>1</v>
+      </c>
+      <c r="G30" s="71">
+        <v>1</v>
+      </c>
+      <c r="H30" s="71">
+        <v>1</v>
+      </c>
+      <c r="I30" s="71">
+        <v>1</v>
+      </c>
+      <c r="J30" s="77">
+        <v>24</v>
+      </c>
+      <c r="K30" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="77">
+        <v>12</v>
+      </c>
+      <c r="M30" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N30" s="77">
+        <v>12</v>
+      </c>
+      <c r="O30" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" s="71">
+        <v>1</v>
+      </c>
+      <c r="D31" s="72">
+        <v>65</v>
+      </c>
+      <c r="E31" s="71">
+        <v>1</v>
+      </c>
+      <c r="F31" s="71">
+        <v>1</v>
+      </c>
+      <c r="G31" s="71">
+        <v>1</v>
+      </c>
+      <c r="H31" s="71">
+        <v>1</v>
+      </c>
+      <c r="I31" s="71">
+        <v>2</v>
+      </c>
+      <c r="J31" s="77">
+        <v>22</v>
+      </c>
+      <c r="K31" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="77">
+        <v>14</v>
+      </c>
+      <c r="M31" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N31" s="77">
+        <v>13</v>
+      </c>
+      <c r="O31" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" s="71">
+        <v>1</v>
+      </c>
+      <c r="D32" s="72">
+        <v>57</v>
+      </c>
+      <c r="E32" s="71">
+        <v>1</v>
+      </c>
+      <c r="F32" s="71">
+        <v>2</v>
+      </c>
+      <c r="G32" s="71">
+        <v>2</v>
+      </c>
+      <c r="H32" s="71">
+        <v>1</v>
+      </c>
+      <c r="I32" s="71">
+        <v>2</v>
+      </c>
+      <c r="J32" s="77">
+        <v>24</v>
+      </c>
+      <c r="K32" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="77">
+        <v>14</v>
+      </c>
+      <c r="M32" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N32" s="77">
+        <v>13</v>
+      </c>
+      <c r="O32" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33" s="71">
+        <v>1</v>
+      </c>
+      <c r="D33" s="72">
         <v>63</v>
       </c>
-      <c r="D24" s="71">
-        <v>1</v>
-      </c>
-      <c r="E24" s="71">
-        <v>2</v>
-      </c>
-      <c r="F24" s="71">
-        <v>2</v>
-      </c>
-      <c r="G24" s="71">
-        <v>1</v>
-      </c>
-      <c r="H24" s="71">
-        <v>1</v>
-      </c>
-      <c r="I24" s="77">
-        <v>22</v>
-      </c>
-      <c r="J24" s="71" t="str">
+      <c r="E33" s="71">
+        <v>1</v>
+      </c>
+      <c r="F33" s="71">
+        <v>2</v>
+      </c>
+      <c r="G33" s="71">
+        <v>2</v>
+      </c>
+      <c r="H33" s="71">
+        <v>1</v>
+      </c>
+      <c r="I33" s="71">
+        <v>1</v>
+      </c>
+      <c r="J33" s="77">
+        <v>23</v>
+      </c>
+      <c r="K33" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K24" s="77">
-        <v>17</v>
-      </c>
-      <c r="L24" s="71" t="str">
+      <c r="L33" s="77">
+        <v>15</v>
+      </c>
+      <c r="M33" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="77">
+      <c r="N33" s="77">
         <v>13</v>
       </c>
-      <c r="N24" s="71" t="str">
+      <c r="O33" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="72">
-        <v>20</v>
-      </c>
-      <c r="D25" s="71">
-        <v>1</v>
-      </c>
-      <c r="E25" s="71">
-        <v>2</v>
-      </c>
-      <c r="F25" s="71">
-        <v>2</v>
-      </c>
-      <c r="G25" s="71">
-        <v>1</v>
-      </c>
-      <c r="H25" s="71">
-        <v>2</v>
-      </c>
-      <c r="I25" s="77">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34" s="71">
+        <v>2</v>
+      </c>
+      <c r="D34" s="72">
+        <v>39</v>
+      </c>
+      <c r="E34" s="71">
+        <v>1</v>
+      </c>
+      <c r="F34" s="71">
+        <v>1</v>
+      </c>
+      <c r="G34" s="71">
+        <v>1</v>
+      </c>
+      <c r="H34" s="71">
+        <v>1</v>
+      </c>
+      <c r="I34" s="71">
+        <v>1</v>
+      </c>
+      <c r="J34" s="77">
         <v>23</v>
       </c>
-      <c r="J25" s="71" t="str">
+      <c r="K34" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K25" s="77">
+      <c r="L34" s="77">
+        <v>13</v>
+      </c>
+      <c r="M34" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N34" s="77">
+        <v>10</v>
+      </c>
+      <c r="O34" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35">
         <v>15</v>
       </c>
-      <c r="L25" s="71" t="str">
+      <c r="C35" s="71">
+        <v>1</v>
+      </c>
+      <c r="D35" s="72">
+        <v>71</v>
+      </c>
+      <c r="E35" s="71">
+        <v>1</v>
+      </c>
+      <c r="F35" s="71">
+        <v>1</v>
+      </c>
+      <c r="G35" s="71">
+        <v>1</v>
+      </c>
+      <c r="H35" s="71">
+        <v>1</v>
+      </c>
+      <c r="I35" s="71">
+        <v>2</v>
+      </c>
+      <c r="J35" s="77">
+        <v>21</v>
+      </c>
+      <c r="K35" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L35" s="77">
+        <v>15</v>
+      </c>
+      <c r="M35" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M25" s="77">
+      <c r="N35" s="77">
+        <v>11</v>
+      </c>
+      <c r="O35" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" s="71">
+        <v>1</v>
+      </c>
+      <c r="D36" s="72">
+        <v>64</v>
+      </c>
+      <c r="E36" s="71">
+        <v>1</v>
+      </c>
+      <c r="F36" s="71">
+        <v>2</v>
+      </c>
+      <c r="G36" s="71">
+        <v>2</v>
+      </c>
+      <c r="H36" s="71">
+        <v>1</v>
+      </c>
+      <c r="I36" s="71">
+        <v>2</v>
+      </c>
+      <c r="J36" s="77">
+        <v>24</v>
+      </c>
+      <c r="K36" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L36" s="77">
+        <v>11</v>
+      </c>
+      <c r="M36" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N36" s="77">
         <v>8</v>
       </c>
-      <c r="N25" s="71" t="str">
+      <c r="O36" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="72">
-        <v>78</v>
-      </c>
-      <c r="D26" s="71">
-        <v>1</v>
-      </c>
-      <c r="E26" s="71">
-        <v>2</v>
-      </c>
-      <c r="F26" s="71">
-        <v>2</v>
-      </c>
-      <c r="G26" s="71">
-        <v>1</v>
-      </c>
-      <c r="H26" s="71">
-        <v>2</v>
-      </c>
-      <c r="I26" s="77">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" s="71">
+        <v>1</v>
+      </c>
+      <c r="D37" s="72">
+        <v>60</v>
+      </c>
+      <c r="E37" s="71">
+        <v>1</v>
+      </c>
+      <c r="F37" s="71">
+        <v>2</v>
+      </c>
+      <c r="G37" s="71">
+        <v>2</v>
+      </c>
+      <c r="H37" s="71">
+        <v>1</v>
+      </c>
+      <c r="I37" s="71">
+        <v>1</v>
+      </c>
+      <c r="J37" s="77">
         <v>24</v>
       </c>
-      <c r="J26" s="71" t="str">
+      <c r="K37" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K26" s="77">
+      <c r="L37" s="77">
+        <v>16</v>
+      </c>
+      <c r="M37" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N37" s="77">
+        <v>10</v>
+      </c>
+      <c r="O37" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38">
         <v>11</v>
       </c>
-      <c r="L26" s="71" t="str">
+      <c r="C38" s="71">
+        <v>1</v>
+      </c>
+      <c r="D38" s="72">
+        <v>57</v>
+      </c>
+      <c r="E38" s="71">
+        <v>1</v>
+      </c>
+      <c r="F38" s="71">
+        <v>1</v>
+      </c>
+      <c r="G38" s="71">
+        <v>1</v>
+      </c>
+      <c r="H38" s="71">
+        <v>1</v>
+      </c>
+      <c r="I38" s="71">
+        <v>1</v>
+      </c>
+      <c r="J38" s="77">
+        <v>24</v>
+      </c>
+      <c r="K38" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L38" s="77">
+        <v>14</v>
+      </c>
+      <c r="M38" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M26" s="77">
+      <c r="N38" s="77">
+        <v>13</v>
+      </c>
+      <c r="O38" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39" s="71">
+        <v>1</v>
+      </c>
+      <c r="D39" s="72">
+        <v>65</v>
+      </c>
+      <c r="E39" s="71">
+        <v>1</v>
+      </c>
+      <c r="F39" s="71">
+        <v>1</v>
+      </c>
+      <c r="G39" s="71">
+        <v>1</v>
+      </c>
+      <c r="H39" s="71">
+        <v>1</v>
+      </c>
+      <c r="I39" s="71">
+        <v>2</v>
+      </c>
+      <c r="J39" s="77">
+        <v>23</v>
+      </c>
+      <c r="K39" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L39" s="77">
+        <v>13</v>
+      </c>
+      <c r="M39" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N39" s="77">
+        <v>13</v>
+      </c>
+      <c r="O39" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
         <v>12</v>
       </c>
-      <c r="N26" s="71" t="str">
+      <c r="C40" s="71">
+        <v>1</v>
+      </c>
+      <c r="D40" s="72">
+        <v>57</v>
+      </c>
+      <c r="E40" s="71">
+        <v>1</v>
+      </c>
+      <c r="F40" s="71">
+        <v>2</v>
+      </c>
+      <c r="G40" s="71">
+        <v>2</v>
+      </c>
+      <c r="H40" s="71">
+        <v>1</v>
+      </c>
+      <c r="I40" s="71">
+        <v>2</v>
+      </c>
+      <c r="J40" s="77">
+        <v>23</v>
+      </c>
+      <c r="K40" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L40" s="77">
+        <v>13</v>
+      </c>
+      <c r="M40" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N40" s="77">
+        <v>10</v>
+      </c>
+      <c r="O40" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="72">
-        <v>73</v>
-      </c>
-      <c r="D27" s="71">
-        <v>1</v>
-      </c>
-      <c r="E27" s="71">
-        <v>2</v>
-      </c>
-      <c r="F27" s="71">
-        <v>2</v>
-      </c>
-      <c r="G27" s="71">
-        <v>1</v>
-      </c>
-      <c r="H27" s="71">
-        <v>2</v>
-      </c>
-      <c r="I27" s="77">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41" s="71">
+        <v>1</v>
+      </c>
+      <c r="D41" s="72">
+        <v>63</v>
+      </c>
+      <c r="E41" s="71">
+        <v>1</v>
+      </c>
+      <c r="F41" s="71">
+        <v>2</v>
+      </c>
+      <c r="G41" s="71">
+        <v>2</v>
+      </c>
+      <c r="H41" s="71">
+        <v>1</v>
+      </c>
+      <c r="I41" s="71">
+        <v>1</v>
+      </c>
+      <c r="J41" s="77">
+        <v>21</v>
+      </c>
+      <c r="K41" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L41" s="77">
+        <v>14</v>
+      </c>
+      <c r="M41" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N41" s="77">
+        <v>11</v>
+      </c>
+      <c r="O41" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="71">
+        <v>2</v>
+      </c>
+      <c r="D42" s="72">
+        <v>39</v>
+      </c>
+      <c r="E42" s="71">
+        <v>1</v>
+      </c>
+      <c r="F42" s="71">
+        <v>1</v>
+      </c>
+      <c r="G42" s="71">
+        <v>1</v>
+      </c>
+      <c r="H42" s="71">
+        <v>1</v>
+      </c>
+      <c r="I42" s="71">
+        <v>1</v>
+      </c>
+      <c r="J42" s="77">
         <v>24</v>
       </c>
-      <c r="J27" s="71" t="str">
+      <c r="K42" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K27" s="77">
-        <v>13</v>
-      </c>
-      <c r="L27" s="71" t="str">
+      <c r="L42" s="77">
+        <v>11</v>
+      </c>
+      <c r="M42" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M27" s="77">
+      <c r="N42" s="77">
+        <v>8</v>
+      </c>
+      <c r="O42" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="71">
+        <v>1</v>
+      </c>
+      <c r="D43" s="72">
+        <v>71</v>
+      </c>
+      <c r="E43" s="71">
+        <v>1</v>
+      </c>
+      <c r="F43" s="71">
+        <v>1</v>
+      </c>
+      <c r="G43" s="71">
+        <v>1</v>
+      </c>
+      <c r="H43" s="71">
+        <v>1</v>
+      </c>
+      <c r="I43" s="71">
+        <v>2</v>
+      </c>
+      <c r="J43" s="77">
+        <v>24</v>
+      </c>
+      <c r="K43" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L43" s="77">
+        <v>15</v>
+      </c>
+      <c r="M43" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N43" s="77">
+        <v>10</v>
+      </c>
+      <c r="O43" s="71" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44" s="71">
+        <v>1</v>
+      </c>
+      <c r="D44" s="72">
+        <v>64</v>
+      </c>
+      <c r="E44" s="71">
+        <v>1</v>
+      </c>
+      <c r="F44" s="71">
+        <v>2</v>
+      </c>
+      <c r="G44" s="71">
+        <v>2</v>
+      </c>
+      <c r="H44" s="71">
+        <v>1</v>
+      </c>
+      <c r="I44" s="71">
+        <v>2</v>
+      </c>
+      <c r="J44" s="77">
+        <v>24</v>
+      </c>
+      <c r="K44" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="77">
+        <v>14</v>
+      </c>
+      <c r="M44" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N44" s="77">
         <v>12</v>
       </c>
-      <c r="N27" s="71" t="str">
+      <c r="O44" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="72">
-        <v>68</v>
-      </c>
-      <c r="D28" s="71">
-        <v>1</v>
-      </c>
-      <c r="E28" s="71">
-        <v>2</v>
-      </c>
-      <c r="F28" s="71">
-        <v>1</v>
-      </c>
-      <c r="G28" s="71">
-        <v>2</v>
-      </c>
-      <c r="H28" s="71">
-        <v>1</v>
-      </c>
-      <c r="I28" s="77">
-        <v>21</v>
-      </c>
-      <c r="J28" s="71" t="str">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" s="71">
+        <v>1</v>
+      </c>
+      <c r="D45" s="72">
+        <v>60</v>
+      </c>
+      <c r="E45" s="71">
+        <v>1</v>
+      </c>
+      <c r="F45" s="71">
+        <v>2</v>
+      </c>
+      <c r="G45" s="71">
+        <v>2</v>
+      </c>
+      <c r="H45" s="71">
+        <v>1</v>
+      </c>
+      <c r="I45" s="71">
+        <v>1</v>
+      </c>
+      <c r="J45" s="77">
+        <v>24</v>
+      </c>
+      <c r="K45" s="71" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K28" s="77">
-        <v>16</v>
-      </c>
-      <c r="L28" s="71" t="str">
+      <c r="L45" s="77">
+        <v>12</v>
+      </c>
+      <c r="M45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M28" s="77">
-        <v>13</v>
-      </c>
-      <c r="N28" s="71" t="str">
+      <c r="N45" s="77">
+        <v>12</v>
+      </c>
+      <c r="O45" s="71" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="72">
-        <v>60</v>
-      </c>
-      <c r="D29" s="71">
-        <v>1</v>
-      </c>
-      <c r="E29" s="71">
-        <v>1</v>
-      </c>
-      <c r="F29" s="71">
-        <v>2</v>
-      </c>
-      <c r="G29" s="71">
-        <v>2</v>
-      </c>
-      <c r="H29" s="71">
-        <v>1</v>
-      </c>
-      <c r="I29" s="77">
-        <v>24</v>
-      </c>
-      <c r="J29" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K29" s="77">
-        <v>12</v>
-      </c>
-      <c r="L29" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M29" s="77">
-        <v>13</v>
-      </c>
-      <c r="N29" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="72">
-        <v>57</v>
-      </c>
-      <c r="D30" s="71">
-        <v>1</v>
-      </c>
-      <c r="E30" s="71">
-        <v>1</v>
-      </c>
-      <c r="F30" s="71">
-        <v>1</v>
-      </c>
-      <c r="G30" s="71">
-        <v>1</v>
-      </c>
-      <c r="H30" s="71">
-        <v>1</v>
-      </c>
-      <c r="I30" s="77">
-        <v>24</v>
-      </c>
-      <c r="J30" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K30" s="77">
-        <v>12</v>
-      </c>
-      <c r="L30" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M30" s="77">
-        <v>12</v>
-      </c>
-      <c r="N30" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="72">
-        <v>65</v>
-      </c>
-      <c r="D31" s="71">
-        <v>1</v>
-      </c>
-      <c r="E31" s="71">
-        <v>1</v>
-      </c>
-      <c r="F31" s="71">
-        <v>1</v>
-      </c>
-      <c r="G31" s="71">
-        <v>1</v>
-      </c>
-      <c r="H31" s="71">
-        <v>2</v>
-      </c>
-      <c r="I31" s="77">
-        <v>22</v>
-      </c>
-      <c r="J31" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K31" s="77">
-        <v>14</v>
-      </c>
-      <c r="L31" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M31" s="77">
-        <v>13</v>
-      </c>
-      <c r="N31" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="72">
-        <v>57</v>
-      </c>
-      <c r="D32" s="71">
-        <v>1</v>
-      </c>
-      <c r="E32" s="71">
-        <v>2</v>
-      </c>
-      <c r="F32" s="71">
-        <v>2</v>
-      </c>
-      <c r="G32" s="71">
-        <v>1</v>
-      </c>
-      <c r="H32" s="71">
-        <v>2</v>
-      </c>
-      <c r="I32" s="77">
-        <v>24</v>
-      </c>
-      <c r="J32" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K32" s="77">
-        <v>14</v>
-      </c>
-      <c r="L32" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M32" s="77">
-        <v>13</v>
-      </c>
-      <c r="N32" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="72">
-        <v>63</v>
-      </c>
-      <c r="D33" s="71">
-        <v>1</v>
-      </c>
-      <c r="E33" s="71">
-        <v>2</v>
-      </c>
-      <c r="F33" s="71">
-        <v>2</v>
-      </c>
-      <c r="G33" s="71">
-        <v>1</v>
-      </c>
-      <c r="H33" s="71">
-        <v>1</v>
-      </c>
-      <c r="I33" s="77">
-        <v>23</v>
-      </c>
-      <c r="J33" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K33" s="77">
-        <v>15</v>
-      </c>
-      <c r="L33" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M33" s="77">
-        <v>13</v>
-      </c>
-      <c r="N33" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="72">
-        <v>39</v>
-      </c>
-      <c r="D34" s="71">
-        <v>1</v>
-      </c>
-      <c r="E34" s="71">
-        <v>1</v>
-      </c>
-      <c r="F34" s="71">
-        <v>1</v>
-      </c>
-      <c r="G34" s="71">
-        <v>1</v>
-      </c>
-      <c r="H34" s="71">
-        <v>1</v>
-      </c>
-      <c r="I34" s="77">
-        <v>23</v>
-      </c>
-      <c r="J34" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K34" s="77">
-        <v>13</v>
-      </c>
-      <c r="L34" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M34" s="77">
-        <v>10</v>
-      </c>
-      <c r="N34" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="72">
-        <v>71</v>
-      </c>
-      <c r="D35" s="71">
-        <v>1</v>
-      </c>
-      <c r="E35" s="71">
-        <v>1</v>
-      </c>
-      <c r="F35" s="71">
-        <v>1</v>
-      </c>
-      <c r="G35" s="71">
-        <v>1</v>
-      </c>
-      <c r="H35" s="71">
-        <v>2</v>
-      </c>
-      <c r="I35" s="77">
-        <v>21</v>
-      </c>
-      <c r="J35" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K35" s="77">
-        <v>15</v>
-      </c>
-      <c r="L35" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M35" s="77">
-        <v>11</v>
-      </c>
-      <c r="N35" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="72">
-        <v>64</v>
-      </c>
-      <c r="D36" s="71">
-        <v>1</v>
-      </c>
-      <c r="E36" s="71">
-        <v>2</v>
-      </c>
-      <c r="F36" s="71">
-        <v>2</v>
-      </c>
-      <c r="G36" s="71">
-        <v>1</v>
-      </c>
-      <c r="H36" s="71">
-        <v>2</v>
-      </c>
-      <c r="I36" s="77">
-        <v>24</v>
-      </c>
-      <c r="J36" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K36" s="77">
-        <v>11</v>
-      </c>
-      <c r="L36" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M36" s="77">
-        <v>8</v>
-      </c>
-      <c r="N36" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="72">
-        <v>60</v>
-      </c>
-      <c r="D37" s="71">
-        <v>1</v>
-      </c>
-      <c r="E37" s="71">
-        <v>2</v>
-      </c>
-      <c r="F37" s="71">
-        <v>2</v>
-      </c>
-      <c r="G37" s="71">
-        <v>1</v>
-      </c>
-      <c r="H37" s="71">
-        <v>1</v>
-      </c>
-      <c r="I37" s="77">
-        <v>24</v>
-      </c>
-      <c r="J37" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K37" s="77">
-        <v>16</v>
-      </c>
-      <c r="L37" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M37" s="77">
-        <v>10</v>
-      </c>
-      <c r="N37" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="72">
-        <v>57</v>
-      </c>
-      <c r="D38" s="71">
-        <v>1</v>
-      </c>
-      <c r="E38" s="71">
-        <v>1</v>
-      </c>
-      <c r="F38" s="71">
-        <v>1</v>
-      </c>
-      <c r="G38" s="71">
-        <v>1</v>
-      </c>
-      <c r="H38" s="71">
-        <v>1</v>
-      </c>
-      <c r="I38" s="77">
-        <v>24</v>
-      </c>
-      <c r="J38" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K38" s="77">
-        <v>14</v>
-      </c>
-      <c r="L38" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M38" s="77">
-        <v>13</v>
-      </c>
-      <c r="N38" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="72">
-        <v>65</v>
-      </c>
-      <c r="D39" s="71">
-        <v>1</v>
-      </c>
-      <c r="E39" s="71">
-        <v>1</v>
-      </c>
-      <c r="F39" s="71">
-        <v>1</v>
-      </c>
-      <c r="G39" s="71">
-        <v>1</v>
-      </c>
-      <c r="H39" s="71">
-        <v>2</v>
-      </c>
-      <c r="I39" s="77">
-        <v>23</v>
-      </c>
-      <c r="J39" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K39" s="77">
-        <v>13</v>
-      </c>
-      <c r="L39" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M39" s="77">
-        <v>13</v>
-      </c>
-      <c r="N39" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="72">
-        <v>57</v>
-      </c>
-      <c r="D40" s="71">
-        <v>1</v>
-      </c>
-      <c r="E40" s="71">
-        <v>2</v>
-      </c>
-      <c r="F40" s="71">
-        <v>2</v>
-      </c>
-      <c r="G40" s="71">
-        <v>1</v>
-      </c>
-      <c r="H40" s="71">
-        <v>2</v>
-      </c>
-      <c r="I40" s="77">
-        <v>23</v>
-      </c>
-      <c r="J40" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K40" s="77">
-        <v>13</v>
-      </c>
-      <c r="L40" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M40" s="77">
-        <v>10</v>
-      </c>
-      <c r="N40" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="72">
-        <v>63</v>
-      </c>
-      <c r="D41" s="71">
-        <v>1</v>
-      </c>
-      <c r="E41" s="71">
-        <v>2</v>
-      </c>
-      <c r="F41" s="71">
-        <v>2</v>
-      </c>
-      <c r="G41" s="71">
-        <v>1</v>
-      </c>
-      <c r="H41" s="71">
-        <v>1</v>
-      </c>
-      <c r="I41" s="77">
-        <v>21</v>
-      </c>
-      <c r="J41" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K41" s="77">
-        <v>14</v>
-      </c>
-      <c r="L41" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="77">
-        <v>11</v>
-      </c>
-      <c r="N41" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="72">
-        <v>39</v>
-      </c>
-      <c r="D42" s="71">
-        <v>1</v>
-      </c>
-      <c r="E42" s="71">
-        <v>1</v>
-      </c>
-      <c r="F42" s="71">
-        <v>1</v>
-      </c>
-      <c r="G42" s="71">
-        <v>1</v>
-      </c>
-      <c r="H42" s="71">
-        <v>1</v>
-      </c>
-      <c r="I42" s="77">
-        <v>24</v>
-      </c>
-      <c r="J42" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K42" s="77">
-        <v>11</v>
-      </c>
-      <c r="L42" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M42" s="77">
-        <v>8</v>
-      </c>
-      <c r="N42" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="72">
-        <v>71</v>
-      </c>
-      <c r="D43" s="71">
-        <v>1</v>
-      </c>
-      <c r="E43" s="71">
-        <v>1</v>
-      </c>
-      <c r="F43" s="71">
-        <v>1</v>
-      </c>
-      <c r="G43" s="71">
-        <v>1</v>
-      </c>
-      <c r="H43" s="71">
-        <v>2</v>
-      </c>
-      <c r="I43" s="77">
-        <v>24</v>
-      </c>
-      <c r="J43" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K43" s="77">
-        <v>15</v>
-      </c>
-      <c r="L43" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M43" s="77">
-        <v>10</v>
-      </c>
-      <c r="N43" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="72">
-        <v>64</v>
-      </c>
-      <c r="D44" s="71">
-        <v>1</v>
-      </c>
-      <c r="E44" s="71">
-        <v>2</v>
-      </c>
-      <c r="F44" s="71">
-        <v>2</v>
-      </c>
-      <c r="G44" s="71">
-        <v>1</v>
-      </c>
-      <c r="H44" s="71">
-        <v>2</v>
-      </c>
-      <c r="I44" s="77">
-        <v>24</v>
-      </c>
-      <c r="J44" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K44" s="77">
-        <v>14</v>
-      </c>
-      <c r="L44" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M44" s="77">
-        <v>12</v>
-      </c>
-      <c r="N44" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="72">
-        <v>60</v>
-      </c>
-      <c r="D45" s="71">
-        <v>1</v>
-      </c>
-      <c r="E45" s="71">
-        <v>2</v>
-      </c>
-      <c r="F45" s="71">
-        <v>2</v>
-      </c>
-      <c r="G45" s="71">
-        <v>1</v>
-      </c>
-      <c r="H45" s="71">
-        <v>1</v>
-      </c>
-      <c r="I45" s="77">
-        <v>24</v>
-      </c>
-      <c r="J45" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K45" s="77">
-        <v>12</v>
-      </c>
-      <c r="L45" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M45" s="77">
-        <v>12</v>
-      </c>
-      <c r="N45" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N45"/>
+  <autoFilter ref="A1:O45"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6215,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -6227,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>3</v>
@@ -6242,7 +6374,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>7</v>
@@ -6284,46 +6416,46 @@
         <v>19</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="34" t="s">
         <v>20</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" s="33" t="s">
         <v>110</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF1" s="33" t="s">
-        <v>112</v>
       </c>
       <c r="AG1" s="34" t="s">
         <v>21</v>
       </c>
       <c r="AH1" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AI1" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK1" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AL1" s="35" t="s">
         <v>22</v>
@@ -6335,13 +6467,13 @@
         <v>24</v>
       </c>
       <c r="AO1" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AP1" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AQ1" s="31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
@@ -13188,67 +13320,67 @@
   <sheetData>
     <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="50" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="55" t="s">
         <v>110</v>
-      </c>
-      <c r="K1" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>112</v>
       </c>
       <c r="M1" s="49" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P1" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="T1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="U1" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="V1" s="65" t="s">
         <v>125</v>
-      </c>
-      <c r="U1" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="65" t="s">
-        <v>127</v>
       </c>
       <c r="W1" s="61" t="s">
         <v>22</v>
@@ -13260,22 +13392,22 @@
         <v>24</v>
       </c>
       <c r="Z1" s="63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AA1" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="58">
         <v>0</v>
@@ -13290,19 +13422,19 @@
         <v>0</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M2" s="43"/>
       <c r="N2" s="17"/>
@@ -13311,37 +13443,37 @@
       </c>
       <c r="P2" s="51"/>
       <c r="Q2" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S2" s="17">
         <v>0</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V2" s="66">
         <v>0</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y2" s="17">
         <v>0</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB2" s="51">
         <v>0</v>
@@ -13349,10 +13481,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="58">
@@ -13373,16 +13505,16 @@
       <c r="K3" s="17"/>
       <c r="L3" s="51"/>
       <c r="M3" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O3" s="17">
         <v>0</v>
       </c>
       <c r="P3" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="17"/>
@@ -13407,7 +13539,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="17"/>
@@ -13457,7 +13589,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="17"/>
@@ -13507,7 +13639,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="17"/>
@@ -13557,7 +13689,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="17"/>
@@ -13607,10 +13739,10 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="59">
@@ -13631,16 +13763,16 @@
       <c r="K8" s="46"/>
       <c r="L8" s="52"/>
       <c r="M8" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O8" s="46">
         <v>0</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="45"/>
       <c r="R8" s="46"/>
